--- a/modules/richards/doc/tests/data/th.xlsx
+++ b/modules/richards/doc/tests/data/th.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="th01" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="L:\moose\project2\trunk\elk\tests\richards\theis\th01.csv" comma="1">
+    <textPr codePage="850" sourceFile="L:\moose\projects_andy\moose\modules\richards\tests\theis\th01.csv" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -244,9 +244,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12930796150481189"/>
-          <c:y val="4.2908288637833351E-2"/>
+          <c:y val="4.2908288637833365E-2"/>
           <c:w val="0.80551837270341198"/>
-          <c:h val="0.74960995093004723"/>
+          <c:h val="0.74960995093004734"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1826,257 +1826,257 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0072263807000128E-2</c:v>
+                  <c:v>3.0072263702699276E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12193517055609991</c:v>
+                  <c:v>0.12193517046810011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27681342553669963</c:v>
+                  <c:v>0.27681342547560051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47712438802630058</c:v>
+                  <c:v>0.47712438798410001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65736679497190054</c:v>
+                  <c:v>0.6573667949401002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89720513536810031</c:v>
+                  <c:v>0.89720513535100033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0966943263559006</c:v>
+                  <c:v>1.0966943263427995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2670005608541992</c:v>
+                  <c:v>1.2670005608577004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4157841923896994</c:v>
+                  <c:v>1.4157841923871004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5482695561871995</c:v>
+                  <c:v>1.5482695561743007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6680922150245998</c:v>
+                  <c:v>1.6680922150137993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7778497656969003</c:v>
+                  <c:v>1.7778497656812005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8794476381062997</c:v>
+                  <c:v>1.8794476380866005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9743177844712001</c:v>
+                  <c:v>1.9743177844399993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0635598760848008</c:v>
+                  <c:v>2.0635598760541995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1480347261079995</c:v>
+                  <c:v>2.1480347260915007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2284276426212992</c:v>
+                  <c:v>2.2284276425871998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2921838935816994</c:v>
+                  <c:v>2.2921838935156003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3664201705027996</c:v>
+                  <c:v>2.3664201704306995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4351338713573001</c:v>
+                  <c:v>2.4351338712868995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4991216591656005</c:v>
+                  <c:v>2.4991216590915006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5590221970290994</c:v>
+                  <c:v>2.5590221969820006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6153548049213002</c:v>
+                  <c:v>2.6153548048477999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.6685471062911996</c:v>
+                  <c:v>2.6685471062615003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7189551885912997</c:v>
+                  <c:v>2.7189551885590002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7668785631078996</c:v>
+                  <c:v>2.7668785630559998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8125714417062002</c:v>
+                  <c:v>2.8125714416700998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8562513596359</c:v>
+                  <c:v>2.8562513596053001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8981058544394007</c:v>
+                  <c:v>2.8981058544122003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9382977010832998</c:v>
+                  <c:v>2.9382977010531</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9769690598132001</c:v>
+                  <c:v>2.9769690597989</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0142447955958995</c:v>
+                  <c:v>3.0142447955758005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0502351586756995</c:v>
+                  <c:v>3.0502351586496008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.0850379679844</c:v>
+                  <c:v>3.0850379679539999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1187404032936001</c:v>
+                  <c:v>3.1187404033276995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1514204872654998</c:v>
+                  <c:v>3.1514204872642004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1831483188076004</c:v>
+                  <c:v>3.1831483187588994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.2139871067019996</c:v>
+                  <c:v>3.2139871066137</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2439940404715002</c:v>
+                  <c:v>3.2439940404181007</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.2732210286468995</c:v>
+                  <c:v>3.2732210285595995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.3017153268766997</c:v>
+                  <c:v>3.3017153268162001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3295200765297004</c:v>
+                  <c:v>3.3295200764748993</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.3566747670935002</c:v>
+                  <c:v>3.3566747670316994</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.3832156358716006</c:v>
+                  <c:v>3.3832156358095</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.4091760145697001</c:v>
+                  <c:v>3.4091760145317007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.4345866310616997</c:v>
+                  <c:v>3.4345866310233002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.4594758728968</c:v>
+                  <c:v>3.4594758728569999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.4838700185496005</c:v>
+                  <c:v>3.4838700185251001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.5077934407596003</c:v>
+                  <c:v>3.5077934407410996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.5312687860879</c:v>
+                  <c:v>3.5312687860760001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5543171337469999</c:v>
+                  <c:v>3.5543171337282997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.5769581366289001</c:v>
+                  <c:v>3.5769581366118</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.5992101469182001</c:v>
+                  <c:v>3.5992101469100999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.6210903281551996</c:v>
+                  <c:v>3.6210903281487998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.6426147554463002</c:v>
+                  <c:v>3.6426147554579003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.6637985055094999</c:v>
+                  <c:v>3.6637985055233999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.6846557373654001</c:v>
+                  <c:v>3.6846557373648001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.7051997652999997</c:v>
+                  <c:v>3.7051997653297004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.7254431246132995</c:v>
+                  <c:v>3.7254431246362998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.7453976309715</c:v>
+                  <c:v>3.7453976310044998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.7650744344553</c:v>
+                  <c:v>3.7650744344617002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.7844840681756002</c:v>
+                  <c:v>3.7844840681914</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.8036364929722999</c:v>
+                  <c:v>3.8036364930254001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.8225411380660996</c:v>
+                  <c:v>3.8225411380858998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.8412069378113003</c:v>
+                  <c:v>3.8412069378631997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.8596423660956005</c:v>
+                  <c:v>3.8596423661252004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.8778554669388998</c:v>
+                  <c:v>3.8778554669894998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.8958538834812999</c:v>
+                  <c:v>3.8958538834765002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.9136448836406998</c:v>
+                  <c:v>3.9136448836618003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.9312353847172004</c:v>
+                  <c:v>3.9312353847402002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.9486319752215002</c:v>
+                  <c:v>3.9486319752513004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.9658409355160003</c:v>
+                  <c:v>3.9658409355188997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.9828682565739997</c:v>
+                  <c:v>3.9828682565625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.9997196575747997</c:v>
+                  <c:v>3.9997196575654996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.0164006020225997</c:v>
+                  <c:v>4.0164006020273995</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0329163127500003</c:v>
+                  <c:v>4.0329163127676999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0492717858012002</c:v>
+                  <c:v>4.0492717858122997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0654718033181005</c:v>
+                  <c:v>4.0654718033295003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.0815209456197996</c:v>
+                  <c:v>4.0815209456434998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.0974236023596999</c:v>
+                  <c:v>4.0974236023902</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.1089598991309995</c:v>
+                  <c:v>4.1089598991758995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="130032768"/>
-        <c:axId val="130034688"/>
+        <c:axId val="134133248"/>
+        <c:axId val="134135168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130032768"/>
+        <c:axId val="134133248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2109,12 +2109,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130034688"/>
+        <c:crossAx val="134135168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130034688"/>
+        <c:axId val="134135168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2146,7 +2146,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130032768"/>
+        <c:crossAx val="134133248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2164,7 +2164,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6260,7 +6260,7 @@
   <dimension ref="C2:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G85"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6325,12 +6325,12 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>99699.277361929999</v>
+        <v>99699.277362973007</v>
       </c>
       <c r="F5"/>
       <c r="G5">
         <f t="shared" ref="G5:G68" si="0">($E$4-E5)/10000</f>
-        <v>3.0072263807000128E-2</v>
+        <v>3.0072263702699276E-2</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -6343,12 +6343,12 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>98780.648294439001</v>
+        <v>98780.648295318999</v>
       </c>
       <c r="F6"/>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.12193517055609991</v>
+        <v>0.12193517046810011</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -6361,12 +6361,12 @@
         <v>39.200000000000003</v>
       </c>
       <c r="E7">
-        <v>97231.865744633003</v>
+        <v>97231.865745243995</v>
       </c>
       <c r="F7"/>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.27681342553669963</v>
+        <v>0.27681342547560051</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -6379,12 +6379,12 @@
         <v>54.88</v>
       </c>
       <c r="E8">
-        <v>95228.756119736994</v>
+        <v>95228.756120159</v>
       </c>
       <c r="F8"/>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.47712438802630058</v>
+        <v>0.47712438798410001</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -6397,12 +6397,12 @@
         <v>57.92</v>
       </c>
       <c r="E9">
-        <v>93426.332050280995</v>
+        <v>93426.332050598998</v>
       </c>
       <c r="F9"/>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.65736679497190054</v>
+        <v>0.6573667949401002</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -6415,12 +6415,12 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>91027.948646318997</v>
+        <v>91027.948646489996</v>
       </c>
       <c r="F10"/>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.89720513536810031</v>
+        <v>0.89720513535100033</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -6433,12 +6433,12 @@
         <v>105.55555555556001</v>
       </c>
       <c r="E11">
-        <v>89033.056736440994</v>
+        <v>89033.056736572005</v>
       </c>
       <c r="F11"/>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>1.0966943263559006</v>
+        <v>1.0966943263427995</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -6451,12 +6451,12 @@
         <v>111.41975308642</v>
       </c>
       <c r="E12">
-        <v>87329.994391458007</v>
+        <v>87329.994391422995</v>
       </c>
       <c r="F12"/>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1.2670005608541992</v>
+        <v>1.2670005608577004</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -6469,12 +6469,12 @@
         <v>117.609739369</v>
       </c>
       <c r="E13">
-        <v>85842.158076103005</v>
+        <v>85842.158076128995</v>
       </c>
       <c r="F13"/>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.4157841923896994</v>
+        <v>1.4157841923871004</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -6487,12 +6487,12 @@
         <v>124.14361377839001</v>
       </c>
       <c r="E14">
-        <v>84517.304438128005</v>
+        <v>84517.304438256993</v>
       </c>
       <c r="F14"/>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1.5482695561871995</v>
+        <v>1.5482695561743007</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -6505,12 +6505,12 @@
         <v>131.04048121052</v>
       </c>
       <c r="E15">
-        <v>83319.077849754001</v>
+        <v>83319.077849862006</v>
       </c>
       <c r="F15"/>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1.6680922150245998</v>
+        <v>1.6680922150137993</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -6523,12 +6523,12 @@
         <v>138.32050794444001</v>
       </c>
       <c r="E16">
-        <v>82221.502343030996</v>
+        <v>82221.502343187996</v>
       </c>
       <c r="F16"/>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1.7778497656969003</v>
+        <v>1.7778497656812005</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -6541,12 +6541,12 @@
         <v>146.00498060801999</v>
       </c>
       <c r="E17">
-        <v>81205.523618937004</v>
+        <v>81205.523619133994</v>
       </c>
       <c r="F17"/>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1.8794476381062997</v>
+        <v>1.8794476380866005</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -6559,12 +6559,12 @@
         <v>154.11636841956999</v>
       </c>
       <c r="E18">
-        <v>80256.822155287999</v>
+        <v>80256.822155600006</v>
       </c>
       <c r="F18"/>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1.9743177844712001</v>
+        <v>1.9743177844399993</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -6577,12 +6577,12 @@
         <v>162.67838888732999</v>
       </c>
       <c r="E19">
-        <v>79364.401239151994</v>
+        <v>79364.401239458006</v>
       </c>
       <c r="F19"/>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>2.0635598760848008</v>
+        <v>2.0635598760541995</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -6595,12 +6595,12 @@
         <v>171.71607715885</v>
       </c>
       <c r="E20">
-        <v>78519.652738920006</v>
+        <v>78519.652739084995</v>
       </c>
       <c r="F20"/>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>2.1480347261079995</v>
+        <v>2.1480347260915007</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -6613,12 +6613,12 @@
         <v>181.25585922323</v>
       </c>
       <c r="E21">
-        <v>77715.723573787007</v>
+        <v>77715.723574128002</v>
       </c>
       <c r="F21"/>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>2.2284276426212992</v>
+        <v>2.2284276425871998</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -6631,12 +6631,12 @@
         <v>156.13867475869</v>
       </c>
       <c r="E22">
-        <v>77078.161064183005</v>
+        <v>77078.161064843996</v>
       </c>
       <c r="F22"/>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>2.2921838935816994</v>
+        <v>2.2921838935156003</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -6649,12 +6649,12 @@
         <v>200</v>
       </c>
       <c r="E23">
-        <v>76335.798294972003</v>
+        <v>76335.798295693006</v>
       </c>
       <c r="F23"/>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>2.3664201705027996</v>
+        <v>2.3664201704306995</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -6667,12 +6667,12 @@
         <v>202.22222222222001</v>
       </c>
       <c r="E24">
-        <v>75648.661286426999</v>
+        <v>75648.661287131006</v>
       </c>
       <c r="F24"/>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>2.4351338713573001</v>
+        <v>2.4351338712868995</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -6685,12 +6685,12 @@
         <v>204.46913580246999</v>
       </c>
       <c r="E25">
-        <v>75008.783408343996</v>
+        <v>75008.783409084994</v>
       </c>
       <c r="F25"/>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>2.4991216591656005</v>
+        <v>2.4991216590915006</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -6703,12 +6703,12 @@
         <v>206.74101508915999</v>
       </c>
       <c r="E26">
-        <v>74409.778029709007</v>
+        <v>74409.778030179994</v>
       </c>
       <c r="F26"/>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>2.5590221970290994</v>
+        <v>2.5590221969820006</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -6721,12 +6721,12 @@
         <v>209.03813747903999</v>
       </c>
       <c r="E27">
-        <v>73846.451950786999</v>
+        <v>73846.451951522002</v>
       </c>
       <c r="F27"/>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>2.6153548049213002</v>
+        <v>2.6153548048477999</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -6739,12 +6739,12 @@
         <v>211.36078345102999</v>
       </c>
       <c r="E28">
-        <v>73314.528937088005</v>
+        <v>73314.528937384996</v>
       </c>
       <c r="F28"/>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>2.6685471062911996</v>
+        <v>2.6685471062615003</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -6757,12 +6757,12 @@
         <v>213.70923660048999</v>
       </c>
       <c r="E29">
-        <v>72810.448114087005</v>
+        <v>72810.448114409999</v>
       </c>
       <c r="F29"/>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>2.7189551885912997</v>
+        <v>2.7189551885590002</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -6775,12 +6775,12 @@
         <v>216.08378367383</v>
       </c>
       <c r="E30">
-        <v>72331.214368921006</v>
+        <v>72331.21436944</v>
       </c>
       <c r="F30"/>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>2.7668785631078996</v>
+        <v>2.7668785630559998</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -6793,12 +6793,12 @@
         <v>218.48471460354</v>
       </c>
       <c r="E31">
-        <v>71874.285582937999</v>
+        <v>71874.285583299003</v>
       </c>
       <c r="F31"/>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>2.8125714417062002</v>
+        <v>2.8125714416700998</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -6811,12 +6811,12 @@
         <v>220.91232254357999</v>
       </c>
       <c r="E32">
-        <v>71437.486403641</v>
+        <v>71437.486403946998</v>
       </c>
       <c r="F32"/>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>2.8562513596359</v>
+        <v>2.8562513596053001</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -6829,12 +6829,12 @@
         <v>223.36690390517001</v>
       </c>
       <c r="E33">
-        <v>71018.941455605993</v>
+        <v>71018.941455877997</v>
       </c>
       <c r="F33"/>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>2.8981058544394007</v>
+        <v>2.8981058544122003</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -6847,12 +6847,12 @@
         <v>225.84875839301</v>
       </c>
       <c r="E34">
-        <v>70617.022989167002</v>
+        <v>70617.022989468998</v>
       </c>
       <c r="F34"/>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>2.9382977010832998</v>
+        <v>2.9382977010531</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -6865,12 +6865,12 @@
         <v>228.35818904182</v>
       </c>
       <c r="E35">
-        <v>70230.309401867999</v>
+        <v>70230.309402011</v>
       </c>
       <c r="F35"/>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>2.9769690598132001</v>
+        <v>2.9769690597989</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -6883,12 +6883,12 @@
         <v>230.89550225338999</v>
       </c>
       <c r="E36">
-        <v>69857.552044041004</v>
+        <v>69857.552044241995</v>
       </c>
       <c r="F36"/>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>3.0142447955958995</v>
+        <v>3.0142447955758005</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
@@ -6901,12 +6901,12 @@
         <v>233.46100783399001</v>
       </c>
       <c r="E37">
-        <v>69497.648413243005</v>
+        <v>69497.648413503994</v>
       </c>
       <c r="F37"/>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>3.0502351586756995</v>
+        <v>3.0502351586496008</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -6919,12 +6919,12 @@
         <v>236.05501903214</v>
       </c>
       <c r="E38">
-        <v>69149.620320155998</v>
+        <v>69149.620320460002</v>
       </c>
       <c r="F38"/>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>3.0850379679844</v>
+        <v>3.0850379679539999</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
@@ -6937,12 +6937,12 @@
         <v>238.67785257694001</v>
       </c>
       <c r="E39">
-        <v>68812.595967064</v>
+        <v>68812.595966723005</v>
       </c>
       <c r="F39"/>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>3.1187404032936001</v>
+        <v>3.1187404033276995</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -6955,12 +6955,12 @@
         <v>241.32982871669</v>
       </c>
       <c r="E40">
-        <v>68485.795127345002</v>
+        <v>68485.795127357997</v>
       </c>
       <c r="F40"/>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>3.1514204872654998</v>
+        <v>3.1514204872642004</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
@@ -6973,12 +6973,12 @@
         <v>244.01127125798001</v>
       </c>
       <c r="E41">
-        <v>68168.516811923997</v>
+        <v>68168.516812411006</v>
       </c>
       <c r="F41"/>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>3.1831483188076004</v>
+        <v>3.1831483187588994</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
@@ -6991,12 +6991,12 @@
         <v>246.72250760528999</v>
       </c>
       <c r="E42">
-        <v>67860.128932980006</v>
+        <v>67860.128933863001</v>
       </c>
       <c r="F42"/>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>3.2139871067019996</v>
+        <v>3.2139871066137</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
@@ -7009,12 +7009,12 @@
         <v>249.46386880091001</v>
       </c>
       <c r="E43">
-        <v>67560.059595284998</v>
+        <v>67560.059595818995</v>
       </c>
       <c r="F43"/>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>3.2439940404715002</v>
+        <v>3.2439940404181007</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
@@ -7027,12 +7027,12 @@
         <v>252.23568956535999</v>
       </c>
       <c r="E44">
-        <v>67267.789713531005</v>
+        <v>67267.789714404003</v>
       </c>
       <c r="F44"/>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>3.2732210286468995</v>
+        <v>3.2732210285595995</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
@@ -7045,12 +7045,12 @@
         <v>255.03830833831</v>
       </c>
       <c r="E45">
-        <v>66982.846731233003</v>
+        <v>66982.846731837999</v>
       </c>
       <c r="F45"/>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>3.3017153268766997</v>
+        <v>3.3017153268162001</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -7063,12 +7063,12 @@
         <v>257.87206731984998</v>
       </c>
       <c r="E46">
-        <v>66704.799234702994</v>
+        <v>66704.799235251005</v>
       </c>
       <c r="F46"/>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>3.3295200765297004</v>
+        <v>3.3295200764748993</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
@@ -7081,12 +7081,12 @@
         <v>260.73731251228998</v>
       </c>
       <c r="E47">
-        <v>66433.252329064999</v>
+        <v>66433.252329683004</v>
       </c>
       <c r="F47"/>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>3.3566747670935002</v>
+        <v>3.3566747670316994</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
@@ -7099,12 +7099,12 @@
         <v>263.63439376243002</v>
       </c>
       <c r="E48">
-        <v>66167.843641283995</v>
+        <v>66167.843641904998</v>
       </c>
       <c r="F48"/>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>3.3832156358716006</v>
+        <v>3.3832156358095</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
@@ -7117,12 +7117,12 @@
         <v>266.56366480422997</v>
       </c>
       <c r="E49">
-        <v>65908.239854302999</v>
+        <v>65908.239854682994</v>
       </c>
       <c r="F49"/>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>3.4091760145697001</v>
+        <v>3.4091760145317007</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
@@ -7135,12 +7135,12 @@
         <v>269.52548330206002</v>
       </c>
       <c r="E50">
-        <v>65654.133689383001</v>
+        <v>65654.133689766997</v>
       </c>
       <c r="F50"/>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>3.4345866310616997</v>
+        <v>3.4345866310233002</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -7153,12 +7153,12 @@
         <v>272.52021089430002</v>
       </c>
       <c r="E51">
-        <v>65405.241271031999</v>
+        <v>65405.241271430001</v>
       </c>
       <c r="F51"/>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>3.4594758728968</v>
+        <v>3.4594758728569999</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
@@ -7171,12 +7171,12 @@
         <v>275.54821323757</v>
       </c>
       <c r="E52">
-        <v>65161.299814503996</v>
+        <v>65161.299814749</v>
       </c>
       <c r="F52"/>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>3.4838700185496005</v>
+        <v>3.4838700185251001</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -7189,12 +7189,12 @@
         <v>278.60986005132003</v>
       </c>
       <c r="E53">
-        <v>64922.065592403997</v>
+        <v>64922.065592589002</v>
       </c>
       <c r="F53"/>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>3.5077934407596003</v>
+        <v>3.5077934407410996</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
@@ -7207,12 +7207,12 @@
         <v>281.705525163</v>
       </c>
       <c r="E54">
-        <v>64687.312139121001</v>
+        <v>64687.312139239999</v>
       </c>
       <c r="F54"/>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>3.5312687860879</v>
+        <v>3.5312687860760001</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
@@ -7225,12 +7225,12 @@
         <v>284.83558655370001</v>
       </c>
       <c r="E55">
-        <v>64456.828662530002</v>
+        <v>64456.828662717002</v>
       </c>
       <c r="F55"/>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>3.5543171337469999</v>
+        <v>3.5543171337282997</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
@@ -7243,12 +7243,12 @@
         <v>288.00042640430001</v>
       </c>
       <c r="E56">
-        <v>64230.418633711</v>
+        <v>64230.418633882</v>
       </c>
       <c r="F56"/>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>3.5769581366289001</v>
+        <v>3.5769581366118</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
@@ -7261,12 +7261,12 @@
         <v>291.20043114213001</v>
       </c>
       <c r="E57">
-        <v>64007.898530817998</v>
+        <v>64007.898530899001</v>
       </c>
       <c r="F57"/>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>3.5992101469182001</v>
+        <v>3.5992101469100999</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -7279,12 +7279,12 @@
         <v>294.43599148815002</v>
       </c>
       <c r="E58">
-        <v>63789.096718448003</v>
+        <v>63789.096718512003</v>
       </c>
       <c r="F58"/>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>3.6210903281551996</v>
+        <v>3.6210903281487998</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
@@ -7297,12 +7297,12 @@
         <v>297.70750250469001</v>
       </c>
       <c r="E59">
-        <v>63573.852445536999</v>
+        <v>63573.852445420998</v>
       </c>
       <c r="F59"/>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>3.6426147554463002</v>
+        <v>3.6426147554579003</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
@@ -7315,12 +7315,12 @@
         <v>301.01536364363</v>
       </c>
       <c r="E60">
-        <v>63362.014944905</v>
+        <v>63362.014944766001</v>
       </c>
       <c r="F60"/>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>3.6637985055094999</v>
+        <v>3.6637985055233999</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
@@ -7333,12 +7333,12 @@
         <v>304.35997879522</v>
       </c>
       <c r="E61">
-        <v>63153.442626345997</v>
+        <v>63153.442626352</v>
       </c>
       <c r="F61"/>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>3.6846557373654001</v>
+        <v>3.6846557373648001</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
@@ -7351,12 +7351,12 @@
         <v>307.74175633738997</v>
       </c>
       <c r="E62">
-        <v>62948.002347000001</v>
+        <v>62948.002346702997</v>
       </c>
       <c r="F62"/>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>3.7051997652999997</v>
+        <v>3.7051997653297004</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
@@ -7369,12 +7369,12 @@
         <v>311.16110918558002</v>
       </c>
       <c r="E63">
-        <v>62745.568753867003</v>
+        <v>62745.568753637002</v>
       </c>
       <c r="F63"/>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>3.7254431246132995</v>
+        <v>3.7254431246362998</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
@@ -7387,12 +7387,12 @@
         <v>314.61845484320003</v>
       </c>
       <c r="E64">
-        <v>62546.023690285001</v>
+        <v>62546.023689955</v>
       </c>
       <c r="F64"/>
       <c r="G64">
         <f t="shared" si="0"/>
-        <v>3.7453976309715</v>
+        <v>3.7453976310044998</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
@@ -7405,12 +7405,12 @@
         <v>318.11421545257002</v>
       </c>
       <c r="E65">
-        <v>62349.255655446999</v>
+        <v>62349.255655383</v>
       </c>
       <c r="F65"/>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>3.7650744344553</v>
+        <v>3.7650744344617002</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
@@ -7423,12 +7423,12 @@
         <v>321.64881784648998</v>
       </c>
       <c r="E66">
-        <v>62155.159318243997</v>
+        <v>62155.159318086</v>
       </c>
       <c r="F66"/>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>3.7844840681756002</v>
+        <v>3.7844840681914</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
@@ -7441,12 +7441,12 @@
         <v>325.22269360033999</v>
       </c>
       <c r="E67">
-        <v>61963.635070277</v>
+        <v>61963.635069746</v>
       </c>
       <c r="F67"/>
       <c r="G67">
         <f t="shared" si="0"/>
-        <v>3.8036364929722999</v>
+        <v>3.8036364930254001</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
@@ -7459,12 +7459,12 @@
         <v>328.83627908479002</v>
       </c>
       <c r="E68">
-        <v>61774.588619339003</v>
+        <v>61774.588619141003</v>
       </c>
       <c r="F68"/>
       <c r="G68">
         <f t="shared" si="0"/>
-        <v>3.8225411380660996</v>
+        <v>3.8225411380858998</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
@@ -7477,12 +7477,12 @@
         <v>332.49001551906002</v>
       </c>
       <c r="E69">
-        <v>61587.930621886997</v>
+        <v>61587.930621368003</v>
       </c>
       <c r="F69"/>
       <c r="G69">
         <f t="shared" ref="G69:G85" si="1">($E$4-E69)/10000</f>
-        <v>3.8412069378113003</v>
+        <v>3.8412069378631997</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -7495,12 +7495,12 @@
         <v>336.18434902483</v>
       </c>
       <c r="E70">
-        <v>61403.576339043997</v>
+        <v>61403.576338747996</v>
       </c>
       <c r="F70"/>
       <c r="G70">
         <f t="shared" si="1"/>
-        <v>3.8596423660956005</v>
+        <v>3.8596423661252004</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
@@ -7513,12 +7513,12 @@
         <v>339.91973068066</v>
       </c>
       <c r="E71">
-        <v>61221.445330611001</v>
+        <v>61221.445330105002</v>
       </c>
       <c r="F71"/>
       <c r="G71">
         <f t="shared" si="1"/>
-        <v>3.8778554669388998</v>
+        <v>3.8778554669894998</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
@@ -7531,12 +7531,12 @@
         <v>343.69661657710998</v>
       </c>
       <c r="E72">
-        <v>61041.461165187</v>
+        <v>61041.461165234999</v>
       </c>
       <c r="F72"/>
       <c r="G72">
         <f t="shared" si="1"/>
-        <v>3.8958538834812999</v>
+        <v>3.8958538834765002</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
@@ -7549,12 +7549,12 @@
         <v>347.51546787241</v>
       </c>
       <c r="E73">
-        <v>60863.551163593002</v>
+        <v>60863.551163381999</v>
       </c>
       <c r="F73"/>
       <c r="G73">
         <f t="shared" si="1"/>
-        <v>3.9136448836406998</v>
+        <v>3.9136448836618003</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
@@ -7567,12 +7567,12 @@
         <v>351.37675084876997</v>
       </c>
       <c r="E74">
-        <v>60687.646152827998</v>
+        <v>60687.646152597998</v>
       </c>
       <c r="F74"/>
       <c r="G74">
         <f t="shared" si="1"/>
-        <v>3.9312353847172004</v>
+        <v>3.9312353847402002</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
@@ -7585,12 +7585,12 @@
         <v>355.28093696932001</v>
       </c>
       <c r="E75">
-        <v>60513.680247785</v>
+        <v>60513.680247486998</v>
       </c>
       <c r="F75"/>
       <c r="G75">
         <f t="shared" si="1"/>
-        <v>3.9486319752215002</v>
+        <v>3.9486319752513004</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
@@ -7603,12 +7603,12 @@
         <v>359.22850293563999</v>
       </c>
       <c r="E76">
-        <v>60341.590644839998</v>
+        <v>60341.590644811004</v>
       </c>
       <c r="F76"/>
       <c r="G76">
         <f t="shared" si="1"/>
-        <v>3.9658409355160003</v>
+        <v>3.9658409355188997</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
@@ -7621,12 +7621,12 @@
         <v>363.21993074604001</v>
       </c>
       <c r="E77">
-        <v>60171.317434260003</v>
+        <v>60171.317434375</v>
       </c>
       <c r="F77"/>
       <c r="G77">
         <f t="shared" si="1"/>
-        <v>3.9828682565739997</v>
+        <v>3.9828682565625</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -7639,12 +7639,12 @@
         <v>367.25570775432999</v>
       </c>
       <c r="E78">
-        <v>60002.803424252001</v>
+        <v>60002.803424345002</v>
       </c>
       <c r="F78"/>
       <c r="G78">
         <f t="shared" si="1"/>
-        <v>3.9997196575747997</v>
+        <v>3.9997196575654996</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
@@ -7657,12 +7657,12 @@
         <v>371.33632672938</v>
       </c>
       <c r="E79">
-        <v>59835.993979774001</v>
+        <v>59835.993979726001</v>
       </c>
       <c r="F79"/>
       <c r="G79">
         <f t="shared" si="1"/>
-        <v>4.0164006020225997</v>
+        <v>4.0164006020273995</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
@@ -7675,12 +7675,12 @@
         <v>375.46228591526</v>
       </c>
       <c r="E80">
-        <v>59670.836872499996</v>
+        <v>59670.836872323001</v>
       </c>
       <c r="F80"/>
       <c r="G80">
         <f t="shared" si="1"/>
-        <v>4.0329163127500003</v>
+        <v>4.0329163127676999</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
@@ -7693,12 +7693,12 @@
         <v>379.63408909208999</v>
       </c>
       <c r="E81">
-        <v>59507.282141987998</v>
+        <v>59507.282141877004</v>
       </c>
       <c r="F81"/>
       <c r="G81">
         <f t="shared" si="1"/>
-        <v>4.0492717858012002</v>
+        <v>4.0492717858122997</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
@@ -7711,12 +7711,12 @@
         <v>383.85224563755997</v>
       </c>
       <c r="E82">
-        <v>59345.281966818999</v>
+        <v>59345.281966704999</v>
       </c>
       <c r="F82"/>
       <c r="G82">
         <f t="shared" si="1"/>
-        <v>4.0654718033181005</v>
+        <v>4.0654718033295003</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
@@ -7729,12 +7729,12 @@
         <v>388.11727058909003</v>
       </c>
       <c r="E83">
-        <v>59184.790543802003</v>
+        <v>59184.790543565003</v>
       </c>
       <c r="F83"/>
       <c r="G83">
         <f t="shared" si="1"/>
-        <v>4.0815209456197996</v>
+        <v>4.0815209456434998</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -7747,12 +7747,12 @@
         <v>392.42968470674998</v>
       </c>
       <c r="E84">
-        <v>59025.763976403003</v>
+        <v>59025.763976098002</v>
       </c>
       <c r="F84"/>
       <c r="G84">
         <f t="shared" si="1"/>
-        <v>4.0974236023596999</v>
+        <v>4.0974236023902</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
@@ -7765,12 +7765,12 @@
         <v>288.89869168609999</v>
       </c>
       <c r="E85">
-        <v>58910.401008690002</v>
+        <v>58910.401008241002</v>
       </c>
       <c r="F85"/>
       <c r="G85">
         <f t="shared" si="1"/>
-        <v>4.1089598991309995</v>
+        <v>4.1089598991758995</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
